--- a/SetDeDatos/gala.xlsx
+++ b/SetDeDatos/gala.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>weight</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,10 +35,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +54,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -52,17 +73,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -71,10 +103,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -112,69 +144,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,54 +232,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -255,7 +288,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -264,7 +297,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -273,7 +306,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -281,10 +314,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -313,7 +346,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -326,13 +359,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -350,1517 +382,1521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2">
         <v>154.0853887811454</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2">
         <v>97.90648409567062</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2">
         <v>180.4259865959342</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2">
         <v>177.3463082387115</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2">
         <v>211.8409831845409</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2">
         <v>161.1239096007918</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2">
         <v>213.533167283602</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2">
         <v>202.0982009367581</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2">
         <v>202.5345694307206</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2">
         <v>139.0368984351084</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2">
         <v>268.9014138750832</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2">
         <v>152.1586874068017</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2">
         <v>268.4944468383275</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2">
         <v>202.1391959909277</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2">
         <v>233.9552357840425</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2">
         <v>203.2016703450671</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2">
         <v>239.3434478225999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2">
         <v>267.973297039997</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2">
         <v>176.7696557418366</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2">
         <v>231.6375029327413</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2">
         <v>213.9889124733901</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2">
         <v>202.2280009906915</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2">
         <v>227.4090418802769</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2">
         <v>214.7261509113938</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2">
         <v>254.3808246573994</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2">
         <v>172.3898707349101</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2">
         <v>195.7420854889168</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2">
         <v>208.9076872931917</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2">
         <v>253.4299978717109</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2">
         <v>190.6507409003967</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="2">
         <v>164.7893842496728</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="2">
         <v>233.0245871863183</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="2">
         <v>205.9306507228916</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="2">
         <v>219.5038484630767</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="2">
         <v>237.7368723544143</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="2">
         <v>236.8941596998503</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="2">
         <v>212.7617180742251</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="2">
         <v>196.1808655620715</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2">
         <v>240.8708654757005</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2">
         <v>204.7286339702856</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2">
         <v>185.7547252073115</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2">
         <v>222.8764582014053</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="2">
         <v>271.4777916776396</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="2">
         <v>233.239235988992</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="2">
         <v>197.794472043671</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="2">
         <v>160.2650648694181</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="2">
         <v>181.2731407481731</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="2">
         <v>261.9506773189546</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="2">
         <v>238.115324889571</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="2">
         <v>230.6436817378436</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="2">
         <v>283.4281340522165</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="2">
         <v>220.6546201101279</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="2">
         <v>197.2040316910012</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="2">
         <v>155.814085730115</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="2">
         <v>216.0352846706198</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="2">
         <v>144.4936159139021</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="2">
         <v>179.4908686852643</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="2">
         <v>191.8262754957454</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="2">
         <v>244.8992456796966</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="2">
         <v>236.5780190562568</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="2">
         <v>262.6323280654292</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="2">
         <v>211.9460727685374</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="2">
         <v>225.0050537511946</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="2">
         <v>238.1779976701918</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="2">
         <v>236.7466346201337</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="2">
         <v>187.6075864080381</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="2">
         <v>156.6115991834138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="2">
         <v>224.8390768697817</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="2">
         <v>243.2926242861447</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="2">
         <v>189.0749239696709</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="2">
         <v>211.7464298975848</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="2">
         <v>213.9923908744663</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="2">
         <v>209.4296324766885</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="2">
         <v>257.4211454825661</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="2">
         <v>160.8868702500932</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="2">
         <v>223.9195186783493</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="2">
         <v>199.63387498288</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="2">
         <v>191.4064064124161</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="2">
         <v>210.1096092879882</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="2">
         <v>215.1622602977028</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="2">
         <v>217.7937923832433</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="2">
         <v>221.4212310797256</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="2">
         <v>169.7630191555678</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="2">
         <v>147.7351621369471</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="2">
         <v>240.9480157504799</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="2">
         <v>236.5047233802874</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="2">
         <v>227.1539603210413</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="2">
         <v>210.0812426652043</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="2">
         <v>207.1947267278448</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="2">
         <v>197.5959958161009</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="2">
         <v>223.3351117320098</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="2">
         <v>172.592128782274</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="2">
         <v>204.5488042270787</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="2">
         <v>213.4998607604163</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="2">
         <v>229.0758787805682</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="2">
         <v>181.1859028335483</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="2">
         <v>243.1024737823446</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="2">
         <v>237.2568288343884</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="2">
         <v>244.708708113435</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="2">
         <v>172.3876596767061</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="2">
         <v>144.8548636437052</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="2">
         <v>213.0056642521641</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="2">
         <v>133.7812766753061</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="2">
         <v>215.5043984600281</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="2">
         <v>162.4369233429087</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="2">
         <v>169.8822131187573</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="2">
         <v>212.1431788669834</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="2">
         <v>236.2358067242036</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="2">
         <v>159.0629028349107</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="2">
         <v>210.0440727609295</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="2">
         <v>270.0197653195343</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="2">
         <v>151.1659893680903</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="2">
         <v>217.5904824325578</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="2">
         <v>167.3699204725181</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="2">
         <v>164.2660335086926</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="2">
         <v>275.6875394031005</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="2">
         <v>153.2033220110123</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="2">
         <v>217.4460642715831</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="2">
         <v>230.2535993335539</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="2">
         <v>200.3170328699923</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="2">
         <v>202.4116006997969</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="2">
         <v>144.6865450298937</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="2">
         <v>157.1632332168213</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="2">
         <v>224.7712387676936</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="2">
         <v>181.9400845015426</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="2">
         <v>142.3675729583345</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="2">
         <v>177.5879065788175</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="2">
         <v>182.3001629477716</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="2">
         <v>212.2786267513583</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="2">
         <v>241.8219592367092</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="2">
         <v>261.7885160386807</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="2">
         <v>172.2352725715791</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="2">
         <v>219.9462889591153</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="2">
         <v>176.2065572717775</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="2">
         <v>157.7060406990854</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="2">
         <v>191.0305932768466</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="2">
         <v>151.8573973483849</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="2">
         <v>182.6215388576516</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="2">
         <v>102.5327351507665</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="2">
         <v>250.1022015081612</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="2">
         <v>260.8398063103488</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="2">
         <v>173.4457278948548</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="2">
         <v>232.2794491860697</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="2">
         <v>154.5959137962195</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="2">
         <v>211.6486420078884</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="2">
         <v>306.4493763566161</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="2">
         <v>184.9482361371077</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="2">
         <v>185.8203589708892</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="2">
         <v>199.0394480979563</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="2">
         <v>200.7793491675028</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="2">
         <v>173.8366992534458</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="2">
         <v>143.3568864831847</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="2">
         <v>275.2455881489108</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="2">
         <v>186.7956294972136</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="2">
         <v>184.7972644041182</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="2">
         <v>209.4187501040766</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="2">
         <v>238.9003313067076</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="2">
         <v>205.5213827911057</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="2">
         <v>154.9787473339389</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="2">
         <v>220.9954605968115</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="2">
         <v>212.3169914647104</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="2">
         <v>208.0901542019382</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="2">
         <v>212.5531560377375</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="2">
         <v>246.6625248652558</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="2">
         <v>291.0517240248914</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="2">
         <v>172.4416541102226</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="2">
         <v>245.4220538144225</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="2">
         <v>268.8929831987235</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="2">
         <v>128.8901493558119</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="2">
         <v>202.153266873029</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="2">
         <v>261.6225891926942</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="2">
         <v>248.3064278076056</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="2">
         <v>214.7703024057109</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="2">
         <v>221.2274834535434</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="2">
         <v>184.8576336164869</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="2">
         <v>239.2806515666244</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="A178" s="2">
         <v>239.1944582728096</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="A179" s="2">
         <v>198.7198817132094</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="A180" s="2">
         <v>284.7851944830641</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="A181" s="2">
         <v>197.2581090536386</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="A182" s="2">
         <v>189.001722277107</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="A183" s="2">
         <v>171.5340124444699</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="A184" s="2">
         <v>176.2057285215986</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="A185" s="2">
         <v>221.727016940477</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="A186" s="2">
         <v>155.6663276992028</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="A187" s="2">
         <v>218.7372683802775</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="A188" s="2">
         <v>310.5353511858926</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="A189" s="2">
         <v>318.3815065944916</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="A190" s="2">
         <v>213.6326458134968</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="A191" s="2">
         <v>228.1427350283123</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="A192" s="2">
         <v>170.1758011197246</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+      <c r="A193" s="2">
         <v>167.9181364478445</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+      <c r="A194" s="2">
         <v>219.7166157050618</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+      <c r="A195" s="2">
         <v>192.7421298340836</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+      <c r="A196" s="2">
         <v>174.1672613769954</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+      <c r="A197" s="2">
         <v>233.1521558943137</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+      <c r="A198" s="2">
         <v>157.8096927126788</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+      <c r="A199" s="2">
         <v>247.171110436176</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+      <c r="A200" s="2">
         <v>179.3688155894432</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="A201" s="2">
         <v>242.5641966014931</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+      <c r="A202" s="2">
         <v>205.2047273873515</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+      <c r="A203" s="2">
         <v>211.6187021953391</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+      <c r="A204" s="2">
         <v>212.4017118873082</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+      <c r="A205" s="2">
         <v>194.8880627633558</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+      <c r="A206" s="2">
         <v>170.4182232468274</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+      <c r="A207" s="2">
         <v>146.6904704135662</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+      <c r="A208" s="2">
         <v>246.292142013279</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+      <c r="A209" s="2">
         <v>152.7354798138977</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+      <c r="A210" s="2">
         <v>167.8410308986502</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+      <c r="A211" s="2">
         <v>219.9640524232723</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+      <c r="A212" s="2">
         <v>245.3135255170099</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+      <c r="A213" s="2">
         <v>181.7153765355714</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+      <c r="A214" s="2">
         <v>278.9332617608292</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+      <c r="A215" s="2">
         <v>158.6859796326029</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+      <c r="A216" s="2">
         <v>171.9465394155951</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="A217" s="2">
         <v>184.8381635611244</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+      <c r="A218" s="2">
         <v>250.52148007167</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+      <c r="A219" s="2">
         <v>231.0155245044153</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+      <c r="A220" s="2">
         <v>258.273856840858</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+      <c r="A221" s="2">
         <v>171.3692053678915</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+      <c r="A222" s="2">
         <v>184.8235173429869</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
+      <c r="A223" s="2">
         <v>290.2074861912486</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+      <c r="A224" s="2">
         <v>227.6283513194545</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
+      <c r="A225" s="2">
         <v>205.435562566202</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+      <c r="A226" s="2">
         <v>231.4093663950846</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+      <c r="A227" s="2">
         <v>328.700005808363</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+      <c r="A228" s="2">
         <v>112.1705160658596</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+      <c r="A229" s="2">
         <v>218.707979571991</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+      <c r="A230" s="2">
         <v>255.7732663001543</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+      <c r="A231" s="2">
         <v>227.0565890126505</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+      <c r="A232" s="2">
         <v>151.0717480300646</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+      <c r="A233" s="2">
         <v>224.6654092840433</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+      <c r="A234" s="2">
         <v>226.1969949055776</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+      <c r="A235" s="2">
         <v>195.6071712279864</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+      <c r="A236" s="2">
         <v>197.8124619697228</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+      <c r="A237" s="2">
         <v>208.7416300546698</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+      <c r="A238" s="2">
         <v>230.9302597169566</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+      <c r="A239" s="2">
         <v>161.6369021817814</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+      <c r="A240" s="2">
         <v>243.0129251509917</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+      <c r="A241" s="2">
         <v>195.2949112962963</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
+      <c r="A242" s="2">
         <v>218.4886269945499</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+      <c r="A243" s="2">
         <v>211.1119798921056</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
+      <c r="A244" s="2">
         <v>293.773994955921</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+      <c r="A245" s="2">
         <v>236.2790701893784</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+      <c r="A246" s="2">
         <v>241.2817143183499</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+      <c r="A247" s="2">
         <v>261.9803821132697</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+      <c r="A248" s="2">
         <v>193.9546540612874</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+      <c r="A249" s="2">
         <v>198.9793893111101</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
+      <c r="A250" s="2">
         <v>209.6467086679581</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+      <c r="A251" s="2">
         <v>141.8039646498228</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
+      <c r="A252" s="2">
         <v>247.6876942752196</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+      <c r="A253" s="2">
         <v>139.7155688857629</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+      <c r="A254" s="2">
         <v>182.4652827435973</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+      <c r="A255" s="2">
         <v>184.2027067821132</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+      <c r="A256" s="2">
         <v>217.5246365240868</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+      <c r="A257" s="2">
         <v>228.8021262961124</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+      <c r="A258" s="2">
         <v>149.783009041921</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
+      <c r="A259" s="2">
         <v>218.4418282053234</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+      <c r="A260" s="2">
         <v>231.5521793558908</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+      <c r="A261" s="2">
         <v>129.2433780370926</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+      <c r="A262" s="2">
         <v>199.9834494741116</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+      <c r="A263" s="2">
         <v>235.8685158749525</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
+      <c r="A264" s="2">
         <v>158.4885907910355</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+      <c r="A265" s="2">
         <v>197.6055925266794</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
+      <c r="A266" s="2">
         <v>169.306231854924</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+      <c r="A267" s="2">
         <v>245.4787655479136</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
+      <c r="A268" s="2">
         <v>139.5163555262465</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
+      <c r="A269" s="2">
         <v>219.3673911075238</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
+      <c r="A270" s="2">
         <v>144.7122294254695</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+      <c r="A271" s="2">
         <v>168.0058093420862</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
+      <c r="A272" s="2">
         <v>225.6525549908684</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
+      <c r="A273" s="2">
         <v>235.7758048682676</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
+      <c r="A274" s="2">
         <v>251.674135228556</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
+      <c r="A275" s="2">
         <v>178.4569287819068</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+      <c r="A276" s="2">
         <v>257.9990189600672</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+      <c r="A277" s="2">
         <v>184.167065018294</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
+      <c r="A278" s="2">
         <v>225.5667508411494</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+      <c r="A279" s="2">
         <v>265.8813166888346</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
+      <c r="A280" s="2">
         <v>244.5171917273896</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
+      <c r="A281" s="2">
         <v>214.6927965755961</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
+      <c r="A282" s="2">
         <v>203.6212733528727</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
+      <c r="A283" s="2">
         <v>226.9048399468286</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
+      <c r="A284" s="2">
         <v>185.0844491684164</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
+      <c r="A285" s="2">
         <v>164.1760695643149</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+      <c r="A286" s="2">
         <v>246.0731286246627</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
+      <c r="A287" s="2">
         <v>161.6206538566245</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+      <c r="A288" s="2">
         <v>233.8879868570964</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
+      <c r="A289" s="2">
         <v>239.4173603465892</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
+      <c r="A290" s="2">
         <v>135.032992010453</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
+      <c r="A291" s="2">
         <v>195.1181728162022</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
+      <c r="A292" s="2">
         <v>175.8704724811851</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+      <c r="A293" s="2">
         <v>189.5748509196509</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
+      <c r="A294" s="2">
         <v>233.3782415743066</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+      <c r="A295" s="2">
         <v>216.9072673090866</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+      <c r="A296" s="2">
         <v>154.8719539837693</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+      <c r="A297" s="2">
         <v>224.3689689933436</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
+      <c r="A298" s="2">
         <v>203.7777182170154</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+      <c r="A299" s="2">
         <v>157.6914648900439</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
+      <c r="A300" s="2">
         <v>224.7589542132252</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
+      <c r="A301" s="2">
         <v>212.1118240320036</v>
       </c>
     </row>
